--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhba</t>
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N2">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q2">
-        <v>11.31796483045924</v>
+        <v>0.131306946848</v>
       </c>
       <c r="R2">
-        <v>11.31796483045924</v>
+        <v>1.181762521632</v>
       </c>
       <c r="S2">
-        <v>0.1296968326894143</v>
+        <v>0.001325111915087219</v>
       </c>
       <c r="T2">
-        <v>0.1296968326894143</v>
+        <v>0.001325111915087219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q3">
-        <v>24.80740681337715</v>
+        <v>0.2882376009333334</v>
       </c>
       <c r="R3">
-        <v>24.80740681337715</v>
+        <v>2.594138408400001</v>
       </c>
       <c r="S3">
-        <v>0.2842774420250835</v>
+        <v>0.002908810908649442</v>
       </c>
       <c r="T3">
-        <v>0.2842774420250835</v>
+        <v>0.002908810908649443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N4">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q4">
-        <v>13.59138260516268</v>
+        <v>0.1584184320693334</v>
       </c>
       <c r="R4">
-        <v>13.59138260516268</v>
+        <v>1.425765888624</v>
       </c>
       <c r="S4">
-        <v>0.1557487854190543</v>
+        <v>0.001598713220767468</v>
       </c>
       <c r="T4">
-        <v>0.1557487854190543</v>
+        <v>0.001598713220767468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N5">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q5">
-        <v>15.98368748329245</v>
+        <v>0.1909154438986667</v>
       </c>
       <c r="R5">
-        <v>15.98368748329245</v>
+        <v>1.718238995088</v>
       </c>
       <c r="S5">
-        <v>0.1831631103589805</v>
+        <v>0.001926663710924156</v>
       </c>
       <c r="T5">
-        <v>0.1831631103589805</v>
+        <v>0.001926663710924157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.977534880105655</v>
+        <v>1.035612</v>
       </c>
       <c r="N6">
-        <v>0.977534880105655</v>
+        <v>3.106836</v>
       </c>
       <c r="O6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444832</v>
       </c>
       <c r="P6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444833</v>
       </c>
       <c r="Q6">
-        <v>3.072836021085885</v>
+        <v>0.037638282528</v>
       </c>
       <c r="R6">
-        <v>3.072836021085885</v>
+        <v>0.338744542752</v>
       </c>
       <c r="S6">
-        <v>0.03521278827764392</v>
+        <v>0.0003798347142973841</v>
       </c>
       <c r="T6">
-        <v>0.03521278827764392</v>
+        <v>0.0003798347142973842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H7">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N7">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q7">
-        <v>1.528255047022427</v>
+        <v>11.67429576919333</v>
       </c>
       <c r="R7">
-        <v>1.528255047022427</v>
+        <v>105.06866192274</v>
       </c>
       <c r="S7">
-        <v>0.01751285165748107</v>
+        <v>0.1178136328302421</v>
       </c>
       <c r="T7">
-        <v>0.01751285165748107</v>
+        <v>0.1178136328302422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H8">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q8">
-        <v>3.349722784440199</v>
+        <v>25.62675536880556</v>
       </c>
       <c r="R8">
-        <v>3.349722784440199</v>
+        <v>230.64079831925</v>
       </c>
       <c r="S8">
-        <v>0.03838573825218636</v>
+        <v>0.2586178393405149</v>
       </c>
       <c r="T8">
-        <v>0.03838573825218636</v>
+        <v>0.258617839340515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H9">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N9">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q9">
-        <v>1.835232691875212</v>
+        <v>14.08473561882556</v>
       </c>
       <c r="R9">
-        <v>1.835232691875212</v>
+        <v>126.76262056943</v>
       </c>
       <c r="S9">
-        <v>0.02103062440552084</v>
+        <v>0.1421390980247545</v>
       </c>
       <c r="T9">
-        <v>0.02103062440552084</v>
+        <v>0.1421390980247545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H10">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N10">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q10">
-        <v>2.15826355994956</v>
+        <v>16.97399423626778</v>
       </c>
       <c r="R10">
-        <v>2.15826355994956</v>
+        <v>152.76594812641</v>
       </c>
       <c r="S10">
-        <v>0.02473235710020134</v>
+        <v>0.1712966644113453</v>
       </c>
       <c r="T10">
-        <v>0.02473235710020134</v>
+        <v>0.1712966644113453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H11">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.977534880105655</v>
+        <v>1.035612</v>
       </c>
       <c r="N11">
-        <v>0.977534880105655</v>
+        <v>3.106836</v>
       </c>
       <c r="O11">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444832</v>
       </c>
       <c r="P11">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444833</v>
       </c>
       <c r="Q11">
-        <v>0.4149224024144866</v>
+        <v>3.346360973459999</v>
       </c>
       <c r="R11">
-        <v>0.4149224024144866</v>
+        <v>30.11724876114</v>
       </c>
       <c r="S11">
-        <v>0.004754752485200812</v>
+        <v>0.03377051180123643</v>
       </c>
       <c r="T11">
-        <v>0.004754752485200812</v>
+        <v>0.03377051180123644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H12">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N12">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O12">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P12">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q12">
-        <v>1.514876155586131</v>
+        <v>1.943522735372</v>
       </c>
       <c r="R12">
-        <v>1.514876155586131</v>
+        <v>17.491704618348</v>
       </c>
       <c r="S12">
-        <v>0.01735953788860336</v>
+        <v>0.01961347206454803</v>
       </c>
       <c r="T12">
-        <v>0.01735953788860336</v>
+        <v>0.01961347206454803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H13">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P13">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q13">
-        <v>3.320398112774937</v>
+        <v>4.266311448483334</v>
       </c>
       <c r="R13">
-        <v>3.320398112774937</v>
+        <v>38.39680303635</v>
       </c>
       <c r="S13">
-        <v>0.03804969576649089</v>
+        <v>0.04305438721686632</v>
       </c>
       <c r="T13">
-        <v>0.03804969576649089</v>
+        <v>0.04305438721686634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H14">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N14">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O14">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P14">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q14">
-        <v>1.81916640831032</v>
+        <v>2.344809865887334</v>
       </c>
       <c r="R14">
-        <v>1.81916640831032</v>
+        <v>21.103288792986</v>
       </c>
       <c r="S14">
-        <v>0.02084651479547428</v>
+        <v>0.02366314628804954</v>
       </c>
       <c r="T14">
-        <v>0.02084651479547428</v>
+        <v>0.02366314628804955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H15">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N15">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O15">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P15">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q15">
-        <v>2.139369348596726</v>
+        <v>2.825810169664666</v>
       </c>
       <c r="R15">
-        <v>2.139369348596726</v>
+        <v>25.432291526982</v>
       </c>
       <c r="S15">
-        <v>0.0245158411977988</v>
+        <v>0.02851726291322506</v>
       </c>
       <c r="T15">
-        <v>0.0245158411977988</v>
+        <v>0.02851726291322507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.537941</v>
+      </c>
+      <c r="H16">
+        <v>1.613823</v>
+      </c>
+      <c r="I16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.035612</v>
+      </c>
+      <c r="N16">
+        <v>3.106836</v>
+      </c>
+      <c r="O16">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P16">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q16">
+        <v>0.557098154892</v>
+      </c>
+      <c r="R16">
+        <v>5.013883394028</v>
+      </c>
+      <c r="S16">
+        <v>0.005622074236293449</v>
+      </c>
+      <c r="T16">
+        <v>0.00562207423629345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.50239</v>
+      </c>
+      <c r="H17">
+        <v>1.50717</v>
+      </c>
+      <c r="I17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.612892</v>
+      </c>
+      <c r="N17">
+        <v>10.838676</v>
+      </c>
+      <c r="O17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q17">
+        <v>1.81508081188</v>
+      </c>
+      <c r="R17">
+        <v>16.33572730692</v>
+      </c>
+      <c r="S17">
+        <v>0.01831727314056427</v>
+      </c>
+      <c r="T17">
+        <v>0.01831727314056427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.50239</v>
+      </c>
+      <c r="H18">
+        <v>1.50717</v>
+      </c>
+      <c r="I18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N18">
+        <v>23.79245</v>
+      </c>
+      <c r="O18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q18">
+        <v>3.984362985166667</v>
+      </c>
+      <c r="R18">
+        <v>35.85926686650001</v>
+      </c>
+      <c r="S18">
+        <v>0.04020904447491726</v>
+      </c>
+      <c r="T18">
+        <v>0.04020904447491729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.50239</v>
+      </c>
+      <c r="H19">
+        <v>1.50717</v>
+      </c>
+      <c r="I19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N19">
+        <v>13.076582</v>
+      </c>
+      <c r="O19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q19">
+        <v>2.189848010326667</v>
+      </c>
+      <c r="R19">
+        <v>19.70863209294</v>
+      </c>
+      <c r="S19">
+        <v>0.0220993158425426</v>
+      </c>
+      <c r="T19">
+        <v>0.0220993158425426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.50239</v>
+      </c>
+      <c r="H20">
+        <v>1.50717</v>
+      </c>
+      <c r="I20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N20">
+        <v>15.759034</v>
+      </c>
+      <c r="O20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q20">
+        <v>2.639060363753333</v>
+      </c>
+      <c r="R20">
+        <v>23.75154327378</v>
+      </c>
+      <c r="S20">
+        <v>0.02663263762192348</v>
+      </c>
+      <c r="T20">
+        <v>0.02663263762192349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="H16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="I16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="J16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="N16">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="O16">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="P16">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="Q16">
-        <v>0.4112900232594456</v>
-      </c>
-      <c r="R16">
-        <v>0.4112900232594456</v>
-      </c>
-      <c r="S16">
-        <v>0.004713127680866025</v>
-      </c>
-      <c r="T16">
-        <v>0.004713127680866025</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.50239</v>
+      </c>
+      <c r="H21">
+        <v>1.50717</v>
+      </c>
+      <c r="I21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.035612</v>
+      </c>
+      <c r="N21">
+        <v>3.106836</v>
+      </c>
+      <c r="O21">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P21">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q21">
+        <v>0.52028111268</v>
+      </c>
+      <c r="R21">
+        <v>4.68253001412</v>
+      </c>
+      <c r="S21">
+        <v>0.005250527242897391</v>
+      </c>
+      <c r="T21">
+        <v>0.005250527242897394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.472129</v>
+      </c>
+      <c r="I22">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J22">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.612892</v>
+      </c>
+      <c r="N22">
+        <v>10.838676</v>
+      </c>
+      <c r="O22">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P22">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q22">
+        <v>0.5685836956893333</v>
+      </c>
+      <c r="R22">
+        <v>5.117253261204</v>
+      </c>
+      <c r="S22">
+        <v>0.005737983008274759</v>
+      </c>
+      <c r="T22">
+        <v>0.005737983008274761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.472129</v>
+      </c>
+      <c r="I23">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J23">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N23">
+        <v>23.79245</v>
+      </c>
+      <c r="O23">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P23">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q23">
+        <v>1.248122847338889</v>
+      </c>
+      <c r="R23">
+        <v>11.23310562605</v>
+      </c>
+      <c r="S23">
+        <v>0.01259569654312268</v>
+      </c>
+      <c r="T23">
+        <v>0.01259569654312269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.472129</v>
+      </c>
+      <c r="I24">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J24">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N24">
+        <v>13.076582</v>
+      </c>
+      <c r="O24">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P24">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q24">
+        <v>0.6859815092308891</v>
+      </c>
+      <c r="R24">
+        <v>6.173833583078001</v>
+      </c>
+      <c r="S24">
+        <v>0.006922727953332269</v>
+      </c>
+      <c r="T24">
+        <v>0.00692272795333227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.472129</v>
+      </c>
+      <c r="I25">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J25">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N25">
+        <v>15.759034</v>
+      </c>
+      <c r="O25">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P25">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q25">
+        <v>0.8266996625984445</v>
+      </c>
+      <c r="R25">
+        <v>7.440296963386</v>
+      </c>
+      <c r="S25">
+        <v>0.008342815055900205</v>
+      </c>
+      <c r="T25">
+        <v>0.008342815055900208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.472129</v>
+      </c>
+      <c r="I26">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J26">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.035612</v>
+      </c>
+      <c r="N26">
+        <v>3.106836</v>
+      </c>
+      <c r="O26">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P26">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q26">
+        <v>0.162980819316</v>
+      </c>
+      <c r="R26">
+        <v>1.466827373844</v>
+      </c>
+      <c r="S26">
+        <v>0.001644755519723656</v>
+      </c>
+      <c r="T26">
+        <v>0.001644755519723657</v>
       </c>
     </row>
   </sheetData>
